--- a/trunk/se/Trabajo Profesional/Disciplinas/3.Analisis/Casos de Uso/CU05 - Dando de alta grupo/TC05 -Dando de alta grupo.xlsx
+++ b/trunk/se/Trabajo Profesional/Disciplinas/3.Analisis/Casos de Uso/CU05 - Dando de alta grupo/TC05 -Dando de alta grupo.xlsx
@@ -170,10 +170,6 @@
     <t>Probar con todas las convinaciones posibles</t>
   </si>
   <si>
-    <t>Verificar:
-1. Que los datos del deportista se modificaron en la base de datos</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -220,6 +216,10 @@
 2. Seleccionar 'New Group'
 3. Dejar algunos datos obligatorios sin cargar
 4. Presionar Save</t>
+  </si>
+  <si>
+    <t>Verificar:
+1. Que se generó el grupo en la base de datos</t>
   </si>
 </sst>
 </file>
@@ -477,6 +477,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,7 +493,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,7 +892,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -915,25 +915,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="13" customFormat="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="14"/>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" s="13" customFormat="1" ht="17.25" customHeight="1">
@@ -981,17 +981,17 @@
     <row r="3" spans="1:16" ht="75">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>14</v>
@@ -1011,17 +1011,17 @@
     <row r="4" spans="1:16" ht="120">
       <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>14</v>
@@ -1039,20 +1039,20 @@
     <row r="5" spans="1:16" ht="75">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>15</v>
@@ -1064,11 +1064,11 @@
       <c r="M5" s="17"/>
       <c r="N5" s="16"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="25"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
